--- a/rider/weekly/2017_16.xlsx
+++ b/rider/weekly/2017_16.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>291</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>224.09</c:v>
+                  <c:v>228.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.28</c:v>
+                  <c:v>215.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.08</c:v>
+                  <c:v>212.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236.5</c:v>
+                  <c:v>239.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241.8</c:v>
+                  <c:v>242.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.46</c:v>
+                  <c:v>114.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.38</c:v>
+                  <c:v>92.45999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D2">
-        <v>224.09</v>
+        <v>228.3</v>
       </c>
       <c r="E2">
         <v>115.46</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="D3">
-        <v>213.28</v>
+        <v>215.96</v>
       </c>
       <c r="E3">
         <v>115.62</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>218.08</v>
+        <v>212.04</v>
       </c>
       <c r="E4">
         <v>115.78</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>236.5</v>
+        <v>239.79</v>
       </c>
       <c r="E5">
         <v>115.95</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="D6">
-        <v>241.8</v>
+        <v>242.28</v>
       </c>
       <c r="E6">
         <v>116.11</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>113.46</v>
+        <v>114.15</v>
       </c>
       <c r="E7">
         <v>116.27</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>92.38</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="E8">
         <v>116.43</v>
